--- a/FME_files/LOOKUP_TABLES/FormatAttributeMapper.xlsx
+++ b/FME_files/LOOKUP_TABLES/FormatAttributeMapper.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
   <si>
     <t>original_value</t>
   </si>
   <si>
-    <t>real_value_english</t>
-  </si>
-  <si>
     <t>ZIP</t>
   </si>
   <si>
@@ -186,16 +183,50 @@
   </si>
   <si>
     <t>uri</t>
+  </si>
+  <si>
+    <t>Service Web</t>
+  </si>
+  <si>
+    <t>Document de soutien</t>
+  </si>
+  <si>
+    <t>Supporting Document</t>
+  </si>
+  <si>
+    <t>Web Service</t>
+  </si>
+  <si>
+    <t>Données</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>real_value</t>
+  </si>
+  <si>
+    <t>resource_type_en</t>
+  </si>
+  <si>
+    <t>resource_type_fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,8 +252,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,334 +536,669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>2</v>
       </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B68">
+  <sortState ref="A1:D46">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FME_files/LOOKUP_TABLES/FormatAttributeMapper.xlsx
+++ b/FME_files/LOOKUP_TABLES/FormatAttributeMapper.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="210">
   <si>
     <t>original_value</t>
   </si>
@@ -203,13 +203,457 @@
     <t>Dataset</t>
   </si>
   <si>
+    <t>resource_type_en</t>
+  </si>
+  <si>
+    <t>resource_type_fr</t>
+  </si>
+  <si>
     <t>real_value</t>
   </si>
   <si>
-    <t>resource_type_en</t>
-  </si>
-  <si>
-    <t>resource_type_fr</t>
+    <t>73e vermilion - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>72e foremost - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83k iosegun lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82p drumheller - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83e mount robson - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82h lethbridge - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83c brazeau - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74d - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>74m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82j - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82p - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83g - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84o - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84p - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, fish and wildlife districts, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, municipalities, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, municipalities, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus municipalities, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus provincial electoral divisions - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus forest management units / forest management agreement holders - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, forest management units / forest management agreement holders, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, treaty boundary - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus public land use zones - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus registered fur management areas (rfma) - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial electoral divisions - provincial base map series</t>
+  </si>
+  <si>
+    <t>72l medicine hat - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>73d wainwright - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83o lesser slave lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83l wapiti - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74m fitzgerald - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74d waterways - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82i gleichen - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84b peerless lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84e chinchaga river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84k mount watt - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>73d - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82g - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83d - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84j - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84k - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, green/white - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus nts grid, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, ep operations regions, municipalities, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial ep operations regions / green and white areas - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial municipalities - provincial base map series</t>
+  </si>
+  <si>
+    <t>82o calgary - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74e bitumount - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82g fernie - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83g wabamun lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83i - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83n - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83p - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84b - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84c - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>73l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>74l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82o - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>72e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>72m oyen - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74l fort chipewyan - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83a red deer - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83h edmonton - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83i tawatinaw - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83n winagami - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83p pelican - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84a algar lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84c peace river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83d canoe river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84j vermilion chutes - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84m bistcho lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84p peace point - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>72m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>73e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>73m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82h - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82i - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83c - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83k - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83o - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84d - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84f - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84g - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84h - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84n - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus municipalities - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial land-use framework regions / green and white areas - provincial base map series</t>
+  </si>
+  <si>
+    <t>73l sand river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83f edson - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83j whitecourt - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82j kananaskis lakes - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83b rocky mountain house - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>73m winefred lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82n golden - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84f bison lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83m grande prairie - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84l zama lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84i lake claire - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84g wadlin lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84h namur lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84d clear hills - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84n steen river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84o whitesand river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>72l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>74e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82n - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83a - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83b - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83f - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83h - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83j - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84a - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84i - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, parks regions, parks districts - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, parks regions and parks districts - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus forest areas of alberta - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus fish and wildlife districts, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus fish and wildlife enforcement regions and fish and wildlife enforcement districts - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus nts grid - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial base map - provincial base map series</t>
+  </si>
+  <si>
+    <t>Alberta Social Vulnerability Indicators (CSD)</t>
+  </si>
+  <si>
+    <t>soil correlation areas v3 kmz</t>
+  </si>
+  <si>
+    <t>soil correlation areas v3 shp</t>
+  </si>
+  <si>
+    <t>unsrrdr_lindist.gdb</t>
+  </si>
+  <si>
+    <t>unsrrsr_foresth.gdb</t>
+  </si>
+  <si>
+    <t>unsrrdr_studyarea</t>
+  </si>
+  <si>
+    <t>whirling disease decontamination zones shape file</t>
+  </si>
+  <si>
+    <t>whirling disease decontamination zones kmz</t>
+  </si>
+  <si>
+    <t>feralhorseminimumcount2019 fgdb</t>
+  </si>
+  <si>
+    <t>feralhorse2019minimumcount shp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw antlered elk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw antlerless moose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw elk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw calf moose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw mountain goat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw trophy sheep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw non trophy sheep </t>
+  </si>
+  <si>
+    <t>special hunting license draw antlerless elk</t>
+  </si>
+  <si>
+    <t>special hunting license draw antlered moose</t>
   </si>
 </sst>
 </file>
@@ -274,7 +718,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -536,15 +980,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198:D199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="151.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
@@ -555,13 +999,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,6 +1635,2148 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D138" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D139" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" t="s">
+        <v>44</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" t="s">
+        <v>44</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D147" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" t="s">
+        <v>44</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D148" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D149" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D151" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D152" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D153" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" t="s">
+        <v>44</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D156" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D157" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" t="s">
+        <v>44</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D158" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" t="s">
+        <v>44</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D159" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" t="s">
+        <v>44</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D160" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" t="s">
+        <v>44</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D161" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" t="s">
+        <v>44</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D162" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" t="s">
+        <v>44</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" t="s">
+        <v>44</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D164" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D165" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" t="s">
+        <v>44</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" t="s">
+        <v>44</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D167" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D168" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" t="s">
+        <v>44</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" t="s">
+        <v>44</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" t="s">
+        <v>44</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D171" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172" t="s">
+        <v>44</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D172" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>84</v>
+      </c>
+      <c r="B173" t="s">
+        <v>44</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174" t="s">
+        <v>44</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D174" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175" t="s">
+        <v>44</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D175" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" t="s">
+        <v>44</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D176" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177" t="s">
+        <v>44</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178" t="s">
+        <v>44</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D178" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>81</v>
+      </c>
+      <c r="B179" t="s">
+        <v>44</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
+        <v>44</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D180" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" t="s">
+        <v>44</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>192</v>
+      </c>
+      <c r="B182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D182" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>194</v>
+      </c>
+      <c r="B184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186" t="s">
+        <v>44</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D187" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" t="s">
+        <v>44</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>202</v>
+      </c>
+      <c r="B192" t="s">
+        <v>44</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D192" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>203</v>
+      </c>
+      <c r="B193" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" t="s">
+        <v>44</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D194" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>205</v>
+      </c>
+      <c r="B195" t="s">
+        <v>44</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>206</v>
+      </c>
+      <c r="B196" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D196" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>207</v>
+      </c>
+      <c r="B197" t="s">
+        <v>44</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D197" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198" t="s">
+        <v>44</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>208</v>
+      </c>
+      <c r="B199" t="s">
+        <v>44</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D199" t="s">
         <v>58</v>
       </c>
     </row>
